--- a/Performance Study/Efficiency Time Use.xlsx
+++ b/Performance Study/Efficiency Time Use.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +27,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>TCMSP Dataset local global均2层</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+  <si>
+    <t>Data experiment: Performance after removing specific relationships</t>
+  </si>
+  <si>
+    <t>TCMSP</t>
+  </si>
+  <si>
+    <t>aucroc</t>
+  </si>
+  <si>
+    <t>auprc</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>without Herb-Target</t>
+  </si>
+  <si>
+    <t>without Herb-Molecule</t>
+  </si>
+  <si>
+    <t>without Target-Molecule</t>
+  </si>
+  <si>
+    <t>without Target-Disease</t>
+  </si>
+  <si>
+    <t>Performed reasonable and explainable data splitting on the open heterogeneous graph benchmark dataset DBLP: Predicting the link probability of new 'paper' nodes with other entities.</t>
+  </si>
+  <si>
+    <t>GNNs</t>
+  </si>
+  <si>
+    <t>GCN</t>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>GATv2</t>
+  </si>
+  <si>
+    <t>GraphSAGE</t>
+  </si>
+  <si>
+    <t>LightGCN</t>
+  </si>
+  <si>
+    <t>HGNNs</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>SeHGNN</t>
+  </si>
+  <si>
+    <t>HGT</t>
+  </si>
+  <si>
+    <t>Inductive LPs</t>
+  </si>
+  <si>
+    <t>DEAL</t>
+  </si>
+  <si>
+    <t>Graph2Feat</t>
+  </si>
+  <si>
+    <t>GTs</t>
+  </si>
+  <si>
+    <t>SGFormer</t>
+  </si>
+  <si>
+    <t>GraphGPS</t>
+  </si>
+  <si>
+    <t>HTIs</t>
+  </si>
+  <si>
+    <t>HGNA-HTI</t>
+  </si>
+  <si>
+    <t>HTINet2</t>
+  </si>
+  <si>
+    <t>HGTs</t>
+  </si>
+  <si>
+    <t>MRHormer</t>
+  </si>
+  <si>
+    <t>added CoBFormer and SGFormer as baseline experiments on the TCMDataset</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>HeNetRW</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>CoBFormer</t>
+  </si>
+  <si>
+    <t>Traditional Local GNN efficiency experiments, measured in seconds per n epochs.</t>
+  </si>
+  <si>
+    <t>TCMSP Dataset GNN only Local num_layer=1</t>
   </si>
   <si>
     <t>second/epoch</t>
@@ -46,64 +155,16 @@
     <t>100 epoch</t>
   </si>
   <si>
-    <t>GNNs</t>
-  </si>
-  <si>
-    <t>GCN</t>
-  </si>
-  <si>
-    <t>GAT</t>
-  </si>
-  <si>
-    <t>GATv2</t>
-  </si>
-  <si>
-    <t>GraphSAGE</t>
-  </si>
-  <si>
-    <t>LightGCN</t>
-  </si>
-  <si>
-    <t>HGNNs</t>
-  </si>
-  <si>
-    <t>HAN</t>
-  </si>
-  <si>
-    <t>SeHGNN</t>
-  </si>
-  <si>
-    <t>HGT</t>
-  </si>
-  <si>
-    <t>Inductive LPs</t>
-  </si>
-  <si>
-    <t>DEAL</t>
-  </si>
-  <si>
-    <t>Graph2Feat</t>
-  </si>
-  <si>
-    <t>GTs</t>
-  </si>
-  <si>
-    <t>SGFormer</t>
-  </si>
-  <si>
-    <t>CoBFormer</t>
-  </si>
-  <si>
-    <t>oom</t>
-  </si>
-  <si>
-    <t>GraphGPS</t>
-  </si>
-  <si>
-    <t>HGTs</t>
-  </si>
-  <si>
-    <t>MRHormer</t>
+    <t>HGAN-HTI</t>
+  </si>
+  <si>
+    <t>MRHormer(only Local)</t>
+  </si>
+  <si>
+    <t>State-of-the-art (SOTA) GT efficiency experiments, measured in seconds per n epochs.</t>
+  </si>
+  <si>
+    <t>TCMSP Dataset GT local num_layer=1 / global num_layer=1</t>
   </si>
 </sst>
 </file>
@@ -117,7 +178,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,25 +187,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -291,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +405,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -494,17 +611,150 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="thick">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="thick">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,166 +876,262 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -839,7 +1185,221 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1098,344 +1658,1196 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="4" max="5" width="10.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="41.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="13.7407407407407" customWidth="1"/>
+    <col min="6" max="6" width="14.2685185185185" customWidth="1"/>
+    <col min="7" max="7" width="11.4907407407407" customWidth="1"/>
+    <col min="8" max="8" width="11.6759259259259" customWidth="1"/>
+    <col min="9" max="10" width="11.4907407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="29.25" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="8">
+        <v>0.7318</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.745</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.6728</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.10980883</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.25211</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5.633131</v>
-      </c>
-      <c r="F2" s="6">
-        <v>11.103047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="8">
+        <v>0.8349</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.843</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.7719</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.1227280769</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.3932728910003</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6.346220801999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>12.40960967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="8">
+        <v>0.7959</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.7687</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.134345569</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.57201596700178</v>
-      </c>
-      <c r="E4" s="5">
-        <v>7.022059498001</v>
-      </c>
-      <c r="F4" s="6">
-        <v>13.874688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="11">
+        <v>0.8432</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.8511</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.7732</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" ht="30.75" customHeight="1" spans="1:10">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.110689</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.2712566</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5.662796</v>
-      </c>
-      <c r="F5" s="6">
-        <v>11.1928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" ht="23.25" customHeight="1" spans="1:10">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.109045336793461</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.24631727099767</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5.61012312399907</v>
-      </c>
-      <c r="F6" s="6">
-        <v>11.0111837369986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C12" s="18">
+        <v>0.8629</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.882</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.8004</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
-        <v>0.166932192170733</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.84552794499904</v>
-      </c>
-      <c r="E7" s="9">
-        <v>8.48659338699872</v>
-      </c>
-      <c r="F7" s="6">
-        <v>16.8310610029984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="C13" s="18">
+        <v>0.8662</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.8806</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.8033</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9">
-        <v>0.267362</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C14" s="18">
+        <v>0.8678</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.8831</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.8021</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.8198</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.8153</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.7473</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.8561</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.8788</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.6966</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.8707</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.8728</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.7966</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.874</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.8787</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.7988</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.8268</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.7536</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.7774</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.7796</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.7116</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.8254</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.8273</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.7481</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.869</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.8828</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.7941</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.8446</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.8521</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.7769</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.7564</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.767</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0.6716</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A25" s="7"/>
+      <c r="B25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.8419</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.8615</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0.7503</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.8745</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.8858</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.8041</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.843</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.8439</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.7508</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.8773</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.859</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.8025</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.769</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.7438</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.7355</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.7895</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.806</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.6579</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.7678</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.7518</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.6362</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.7829</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.7561</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.7241</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.1198</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1.2521</v>
+      </c>
+      <c r="E40" s="31">
+        <v>5.6331</v>
+      </c>
+      <c r="F40" s="32">
+        <v>12.103</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0.1227</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1.3933</v>
+      </c>
+      <c r="E41" s="31">
+        <v>6.3462</v>
+      </c>
+      <c r="F41" s="33">
+        <v>12.4096</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0.1343</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1.572</v>
+      </c>
+      <c r="E42" s="31">
+        <v>7.0221</v>
+      </c>
+      <c r="F42" s="33">
+        <v>13.8747</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="31">
+        <v>0.1197</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1.2713</v>
+      </c>
+      <c r="E43" s="31">
+        <v>5.6628</v>
+      </c>
+      <c r="F43" s="33">
+        <v>12.1928</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="31">
+        <v>0.119</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1.2463</v>
+      </c>
+      <c r="E44" s="31">
+        <v>5.6101</v>
+      </c>
+      <c r="F44" s="33">
+        <v>12.0112</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A45" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="31">
+        <v>0.1669</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1.8455</v>
+      </c>
+      <c r="E45" s="31">
+        <v>8.4866</v>
+      </c>
+      <c r="F45" s="33">
+        <v>16.8311</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="31">
+        <v>0.2674</v>
+      </c>
+      <c r="D46" s="31">
         <v>2.9547</v>
       </c>
-      <c r="E8" s="9">
-        <v>13.56026</v>
-      </c>
-      <c r="F8" s="6">
-        <v>27.02716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.1441835157</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.633773638</v>
-      </c>
-      <c r="E9" s="5">
-        <v>7.3923668809</v>
-      </c>
-      <c r="F9" s="6">
-        <v>14.589468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.132046099107065</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.5854941840007</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6.82743961900268</v>
-      </c>
-      <c r="F10" s="6">
-        <v>13.370929159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.137396045451467</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1.57245506199979</v>
-      </c>
-      <c r="E11" s="9">
-        <v>7.1117117299982</v>
-      </c>
-      <c r="F11" s="6">
-        <v>14.0258896849991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="E46" s="31">
+        <v>13.5603</v>
+      </c>
+      <c r="F46" s="33">
+        <v>27.0272</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9">
-        <v>0.15344709665895</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.73011543999928</v>
-      </c>
-      <c r="E12" s="9">
-        <v>7.89504744499936</v>
-      </c>
-      <c r="F12" s="6">
-        <v>15.5677107589999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="C47" s="31">
+        <v>0.1442</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1.6338</v>
+      </c>
+      <c r="E47" s="31">
+        <v>7.3924</v>
+      </c>
+      <c r="F47" s="33">
+        <v>14.5895</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A48" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="C48" s="31">
+        <v>0.132</v>
+      </c>
+      <c r="D48" s="31">
+        <v>1.5855</v>
+      </c>
+      <c r="E48" s="31">
+        <v>6.8274</v>
+      </c>
+      <c r="F48" s="33">
+        <v>13.3709</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9">
-        <v>0.13847721</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1.586957</v>
-      </c>
-      <c r="E14" s="9">
-        <v>8.32505</v>
-      </c>
-      <c r="F14" s="6">
-        <v>15.9988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="C49" s="31">
+        <v>0.1374</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1.5725</v>
+      </c>
+      <c r="E49" s="31">
+        <v>7.1117</v>
+      </c>
+      <c r="F49" s="33">
+        <v>14.0259</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A50" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="31">
+        <v>0.1211</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1.3309</v>
+      </c>
+      <c r="E50" s="31">
+        <v>6.5236</v>
+      </c>
+      <c r="F50" s="33">
+        <v>12.446</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="31">
+        <v>0.1586</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1.7565</v>
+      </c>
+      <c r="E51" s="31">
+        <v>7.9984</v>
+      </c>
+      <c r="F51" s="33">
+        <v>16.2755</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A52" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="35">
+        <v>0.1532</v>
+      </c>
+      <c r="D52" s="35">
+        <v>1.6137</v>
+      </c>
+      <c r="E52" s="35">
+        <v>7.8089</v>
+      </c>
+      <c r="F52" s="36">
+        <v>15.4796</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" ht="17.1" spans="1:6">
+      <c r="A55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="1:6">
+      <c r="A56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9">
-        <v>0.233021</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2.4810596</v>
-      </c>
-      <c r="E15" s="9">
-        <v>12.6488379</v>
-      </c>
-      <c r="F15" s="6">
-        <v>25.5842</v>
-      </c>
-    </row>
+      <c r="C56" s="18">
+        <v>0.1534</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1.7301</v>
+      </c>
+      <c r="E56" s="18">
+        <v>7.895</v>
+      </c>
+      <c r="F56" s="37">
+        <v>15.5677</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:6">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0.1791</v>
+      </c>
+      <c r="D57" s="18">
+        <v>2.0076</v>
+      </c>
+      <c r="E57" s="18">
+        <v>9.3759</v>
+      </c>
+      <c r="F57" s="19">
+        <v>18.5057</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:6">
+      <c r="A58" s="7"/>
+      <c r="B58" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="D58" s="18">
+        <v>2.123</v>
+      </c>
+      <c r="E58" s="18">
+        <v>9.6087</v>
+      </c>
+      <c r="F58" s="19">
+        <v>18.9474</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:6">
+      <c r="A59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="39">
+        <v>0.1693</v>
+      </c>
+      <c r="D59" s="39">
+        <v>1.8997</v>
+      </c>
+      <c r="E59" s="39">
+        <v>8.6663</v>
+      </c>
+      <c r="F59" s="40">
+        <v>17.1166</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>